--- a/my_results/Semantics.xlsx
+++ b/my_results/Semantics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Python\Thesis\open_clip\my_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6728C348-85C8-445A-A35D-C1A80AB221EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B61CC0D-3FCD-4FB2-A6DA-7919DEC925AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/my_results/Semantics.xlsx
+++ b/my_results/Semantics.xlsx
@@ -1,47 +1,65 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Python\Thesis\open_clip\my_results\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B61CC0D-3FCD-4FB2-A6DA-7919DEC925AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="COCO_val2014_000000005577.jpg" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="COCO_val2014_000000005617.jpg" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="COCO_val2014_000000005694.jpg" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="COCO_val2014_000000005804.jpg" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="COCO_val2014_000000005860.jpg" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="COCO_val2014_000000005934.jpg" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="COCO_val2014_000000005965.jpg" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="COCO_val2014_000000006012.jpg" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="COCO_val2014_000000006580.jpg" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="COCO_val2014_000000006662.jpg" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="COCO_val2014_000000006763.jpg" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="COCO_val2014_000000006847.jpg" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="COCO_val2014_000000006894.jpg" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="COCO_val2014_000000007207.jpg" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="COCO_val2014_000000007281.jpg" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="COCO_val2014_000000007320.jpg" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="COCO_val2014_000000007325.jpg" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="COCO_val2014_000000007559.jpg" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="COCO_val2014_000000007666.jpg" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="COCO_val2014_000000007682.jpg" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="COCO_val2014_000000008080.jpg" sheetId="22" state="visible" r:id="rId22"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -49,28 +67,96 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="1" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -358,54 +444,1971 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:B44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A2:A44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="53.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="59.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="62" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="59.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="40.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="51.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="40.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="46.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="40.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="52.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="40.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="62" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="40.28515625" bestFit="1" customWidth="1"/>
+    <col width="53.7109375" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="55.7109375" bestFit="1" customWidth="1" style="2" min="2" max="2"/>
+    <col width="51.7109375" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="59.28515625" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="62" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="40.28515625" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="59.28515625" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="40.28515625" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="51.7109375" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="40.28515625" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="46.5703125" bestFit="1" customWidth="1" min="11" max="11"/>
+    <col width="40.28515625" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="52.85546875" bestFit="1" customWidth="1" min="13" max="13"/>
+    <col width="40.28515625" bestFit="1" customWidth="1" min="14" max="14"/>
+    <col width="62" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="40.28515625" bestFit="1" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
+    <row r="2">
+      <c r="A2" s="1" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>choices</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>similarity</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>A bed placed randomly in a deserted area with no one around.</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.2659423351287842</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>A group of people surrounding a bed in a park.</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.3338392674922943</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A bed being carried by a crowd of people on a busy street.</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.4314580857753754</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A group of people taking turns jumping on a bed in a public space.</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.3422819375991821</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A bed floating in a sea of people in a concert.</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.34315225481987</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A crowd of people standing next to a bed on a sidewalk.</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.3754224479198456</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>choices</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>similarity</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>A man laying upside down on a bed with a glass of wine in hand.</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.2703774273395538</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>A dog dressed up as a woman laying on a bed with toys scattered around.</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.2253132164478302</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A woman sleeping on top of a messy bed with a pizza box next to her.</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.3020339608192444</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A woman with a clown mask on, posing on a bed.</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.3066092431545258</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>An empty bed with a single shoe thrown on top.</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.2758671641349792</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A woman that is laying upside down on a bed.</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.3461594581604004</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>choices</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>similarity</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Two strangers awkwardly standing next to each other at a party.</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.3449337482452393</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>A man and woman arguing in a restaurant.</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.2573469877243042</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A man and woman standing on opposite ends of a table, clearly not interested in each other's company.</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.2970858216285706</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A miserable man and woman forced to take a picture together.</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.3506937026977539</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A man and woman looking uncomfortable while trying to pose for a picture in a loud bar.</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.3774940371513367</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A man and a women posing next to one another in front of a table.</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.3543477654457092</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>choices</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>similarity</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>A clean-shaven man with a nose ring wearing a red scarf.</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.335368812084198</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>A woman is wearing a turtleneck sweater with a bow tie.</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.2508965730667114</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A man without facial hair is wearing a polo shirt and a bow tie.</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.3708980977535248</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A man with a blue flannel shirt, yellow tie, and a mustache.</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.3199245929718018</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A distant shot of a man wearing a blue bow tie over a Hawaiian print shirt.</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.2646917998790741</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A bearded man with an earring wearing a black tie.</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.3797663450241089</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>choices</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>similarity</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>A man being attacked by an elephant's trunk in a zoo.</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.3675052523612976</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>A man stealing food from an elephant with his mouth.</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.3619723320007324</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A man getting a massage from an elephant's trunk.</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.3926318287849426</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>An elephant playfully knocking a man over with its trunk.</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.3855104744434357</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A man trying to ride an elephant's trunk like a surfboard.</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.363275945186615</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A man getting a kiss on the neck from an elephant's trunk</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.4149943888187408</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>choices</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>similarity</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>A group of friends, unaware of the bunny ears being formed behind them in the photo.</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.3193935751914978</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>A group of men showcasing their impressive carrot-juggling skills.</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.3614952564239502</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A staged photo of four men trying to outdo each other in a carrot-eating contest.</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.351668119430542</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>The newest trend: posing with carrots in your mouth.</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.3777236938476562</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A man eagerly waiting for his turn to join the "carrot in mouth" photo challenge.</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.305867075920105</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A couple of people that are posing for a picture.</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.2164607048034668</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>choices</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>similarity</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Two men are struggling to control their horses in the rough waves on the beach.</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.3747211694717407</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Two women are sunbathing on the beach while their horses wander aimlessly.</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.3524734675884247</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A group of people on horseback are racing down the crowded boardwalk instead of on the beach.</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.3541255295276642</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Two men are arguing while trying to ride their horses on the rocky cliffs above the beach.</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.3737242817878723</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Two horses are running wild on the beach while their riders are nowhere in sight.</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.3734158873558044</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Two men smile as they ride horses on the beach.</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.4021660983562469</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>choices</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>similarity</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A Wii controller pointed at a toaster with a cooking show on the channel. </t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.4209193587303162</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>A pile of rocks with a controller balancing on top and a TV in the background.</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.3594143688678741</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A large plant blocking the view of a wii remote on a windowsill with a blank TV screen.</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.3796065747737885</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A person holding a wii remote while sitting on a toilet, facing a bathroom mirror.</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.3460232019424438</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A colorful toy car in front of a controller and an unplugged TV.</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.3420132994651794</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A Wii controller facing a TV with a video game on the channel.</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.4243426918983459</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>choices</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>similarity</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>A green ordinary car is parked by a sitting woman.</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.2653214037418365</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>A group of dogs on a beach with a boat.</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.1329756379127502</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Woman reading book to child on a bench by a modern car parked on a paved street.</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.2565679550170898</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A person holding an umbrella while watching a performance.</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.240233525633812</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>They are eating ice cream in front of the new car.</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.2806317806243896</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A red fancy bus is parked by a standing man.</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.3640618324279785</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>choices</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>similarity</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>A cup filled with random objects, including toothbrushes.</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.4389881789684296</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>A rainbow of tooth brushes scattered in a cup.</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.4412024021148682</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A collection of various toothbrushes sitting in a cup.</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.437861293554306</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A cup overflowing with toothbrushes in every color imaginable.</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.4393602907657623</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A disorganized cup of toothbrushes, waiting to be used.</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.4616564810276031</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A coffee cup filled with different colored tooth brushes.</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.450254499912262</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>choices</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>similarity</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>A cat playing with a pile of clothes, completely ignoring the backpack next to it.</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.4306251406669617</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>A cat perched on a chair, gazing longingly at the bag on the floor.</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.3885304629802704</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A black and white dog napping on a pile of clothes.</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.3639552593231201</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A bag full of clothes and a lonely cat sitting nearby.</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.4107364416122437</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A cat lounging on a couch, surrounded by clothes and bags.</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.3762738108634949</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A black and white cat sitting on top of a pile of clothes.</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.3767525553703308</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>choices</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>similarity</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>A purple train chugs through an urban city.</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.2167592942714691</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>A red train speeds along the beach.</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.2546388506889343</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>The yellow train rumbles over a snowy mountain.</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.2533173859119415</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>The black train crosses a desert landscape.</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.2523855566978455</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A pink train snakes through a bustling city.</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.2467494904994965</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The blue train is passing through a wooded area. </t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.35454922914505</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>choices</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>similarity</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>A person in a fake mustache and a tutu</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.3798104822635651</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>A lady with a monocle and tie-dye shirt</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.3508163094520569</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>The man has a fake mustache and clown nose</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.3814687132835388</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A woman in a fedora and a fake mustache</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.3395035266876221</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A man wearing a tutu and a serious expression.</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.3175424337387085</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A man in a tie and a fake moustache</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.4117110073566437</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>choices</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>similarity</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>A cow parks close to a car in front of a library.</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.2443711459636688</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Two pigs side by side outside in front of a church.</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.2243314981460571</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A plane sitting next to a boat in front of a playground.</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.2010705173015594</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A firetruck pulled up next to a bicycle in front of a mall.</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.2101784497499466</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A group of horses trotting next to each other on a sidewalk.</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.1691218316555023</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A bus parks close to a truck in front of a church.</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.3739122152328491</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>choices</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>similarity</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Two cats are sitting on a pile of books.</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.32920241355896</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Two cats are napping on a pile of laundry.</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.3803192675113678</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A cat is stretched out on a stack of magazines while his friend stands guard.</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.3109377324581146</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Two cats are lounging on a stack of towels.</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.3686790764331818</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>One cat is perched on top of a stack of DVDs while the other dozes on a nearby blanket.</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.326943039894104</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A couple of cats laying on top of pillows.</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.4362201690673828</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>choices</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>similarity</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>A white bird perched on a snow-covered mountain.</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.3065966963768005</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>A close-up of a snowy owl in a frosty forest.</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.2466612011194229</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A white heron standing in a snowy meadow.</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.2268006801605225</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A white ibis with icy blue feathers in a wintry landscape.</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.2469757497310638</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A pale puffin blending in with a snowy cliffside.</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.2375395745038986</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A white parrot standing next to a jungle covered hillside.</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.4068556725978851</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>choices</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>similarity</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>A laptop floating in mid-air next to a ghostly rocking chair.</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.3776779174804688</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>A giant elephant balancing a laptop on its trunk next to a tiny table.</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.3295240700244904</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A spaceship with a laptop inside, parked next to a deserted rocking chair.</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.3382062017917633</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A table made entirely out of cheese, with a laptop and chair made of crackers.</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.3277939558029175</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A laptop balancing precariously on top of a tower of books, next to a chair made of marshmallows.</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.3194094896316528</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A laptop computer sitting on a  table, next to a rocking chair.</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.3952969312667847</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>choices</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>similarity</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>A giant cell phone towering over a tiny can of Pepsi.</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.4433445036411285</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>A glass of water balancing on a cell phone.</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.3560509979724884</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A cell phone drowning in a pool of soda.</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.4046390652656555</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A cup of coffee holding a struggling cell phone.</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.3107011914253235</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A cell phone flying through the air towards a glass of soda.</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.3886228203773499</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A small cell phone sitting next to a glass of Pepsi.</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.4498684108257294</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>choices</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>similarity</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>-A baseball glove and a football on a bench</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.3867295980453491</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">-A basketball sitting inside of a baseball glove </t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.4066367149353027</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">-A tennis racket holding a golf ball </t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.2746187448501587</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">-An old baseball glove and a plastic ball </t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.4016702771186829</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>-A baseball and a glove next to a soccer ball</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.3893415331840515</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">a close up of a baseball and a glove </t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.3931795358657837</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>choices</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>similarity</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>A tiny mouse on a pink bicycle.</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.2133344113826752</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>A small figurine balancing on a toy motorcycle.</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.2647284269332886</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A miniature bear pretending to ride a motorcycle.</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.3337824940681458</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A plastic bear perched on a tricycle.</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.2817716896533966</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A tiny stuffed animal balancing on a parked scooter.</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.2645314931869507</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A big teddy bear on a black motorcycle. </t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.3510854542255402</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>choices</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>similarity</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>There are oranges scattered around a different type of fruit.</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.2631207406520844</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>A pink and green pear and a bunch of cherries.</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.3071846961975098</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A peach sits in the middle of a group of grapes.</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.3138631582260132</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A cluster of strawberries with a peach in the center.</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.2527958452701569</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Three apples and a purple fruit make a jumbled mess against a green background.</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.3337638378143311</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">There are bananas around another piece of fruit. </t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.3476018011569977</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
